--- a/request-data-table.xlsx
+++ b/request-data-table.xlsx
@@ -737,6 +737,9 @@
     <t>Negative</t>
   </si>
   <si>
+    <t>True Positive (TP): Correctly extracted elements by ChatGPT.</t>
+  </si>
+  <si>
     <t>actual</t>
   </si>
   <si>
@@ -746,7 +749,7 @@
     <t>FN = 1</t>
   </si>
   <si>
-    <t>True Positive (TP): Correctly extracted elements by ChatGPT.</t>
+    <t>False Negative (FN): Elements that should have been identified by ChatGPT but were missed.</t>
   </si>
   <si>
     <t>FP = 4</t>
@@ -755,10 +758,7 @@
     <t>TN = 0</t>
   </si>
   <si>
-    <t>False Negative (FN): Elements that should have been identified by ChatGPT but were missed.</t>
-  </si>
-  <si>
-    <t>False Positive (FP): Cases where ChatGPT incorrectly marked an element as present when it was not from the tools.</t>
+    <t>False Positive (FP): Cases where ChatGPT  marked an element as present but it not found from the pycefr tools.</t>
   </si>
   <si>
     <t>True Negative (TN): Cases where ChatGPT correctly did not identify an element that should not have been identified.</t>
@@ -767,13 +767,13 @@
     <t>TP = 36</t>
   </si>
   <si>
-    <t>FN = 23</t>
+    <t>FN = 0</t>
   </si>
   <si>
     <t>True Positive (TP): Elements that were replaceable as expected.</t>
   </si>
   <si>
-    <t>FP = 0</t>
+    <t>FP = 23</t>
   </si>
   <si>
     <t>TN = 1</t>
@@ -951,7 +951,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -991,6 +991,7 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="8">
     <fill>
@@ -1036,13 +1037,71 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1101,6 +1160,17 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6541,7 +6611,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6554,8 +6624,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>193</v>
+      <c r="A3" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>191</v>
@@ -6633,72 +6703,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24">
+      <c r="A2" s="29">
         <v>6.0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="29">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>28.0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="29">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="29">
         <v>23.0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="29">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>25.0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="29">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25">
+      <c r="A6" s="30">
         <v>27.0</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="30">
         <v>6.0</v>
       </c>
     </row>
@@ -6921,232 +6991,232 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24">
+      <c r="A2" s="29">
         <v>6.0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="29">
         <v>4.0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>20.0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
+      <c r="E3" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4">
-      <c r="A4" s="24">
+      <c r="A4" s="29">
         <v>28.0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
+      <c r="E4" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>23.0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>3.0</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="29">
         <v>25.0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="29">
         <v>4.0</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>27.0</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="29">
         <v>6.0</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -27402,53 +27472,53 @@
       <c r="C1" s="22" t="s">
         <v>190</v>
       </c>
+      <c r="D1" s="23"/>
     </row>
     <row r="2">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="24" t="s">
         <v>192</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="24" t="s">
         <v>195</v>
       </c>
+      <c r="D3" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="24" t="s">
         <v>198</v>
       </c>
+      <c r="D4" s="24" t="s">
+        <v>199</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" s="1" t="s">
         <v>201</v>
       </c>
     </row>
